--- a/Conditional p-center/output_final.xlsx
+++ b/Conditional p-center/output_final.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,6 +572,209 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>107.7</v>
+      </c>
+      <c r="E7">
+        <v>0.007163619995117188</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>107.7</v>
+      </c>
+      <c r="H7">
+        <v>0.04088420867919922</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>105.9</v>
+      </c>
+      <c r="E8">
+        <v>0.1119834899902344</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>105.9999998767209</v>
+      </c>
+      <c r="H8">
+        <v>398.2819231033325</v>
+      </c>
+      <c r="I8">
+        <v>0.003557036670546635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>104.6</v>
+      </c>
+      <c r="E9">
+        <v>0.03299751281738281</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>104.6</v>
+      </c>
+      <c r="H9">
+        <v>92.19672756195068</v>
+      </c>
+      <c r="I9">
+        <v>7.850528374216907e-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>104.4</v>
+      </c>
+      <c r="E10">
+        <v>0.01076564788818359</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>104.3999999913155</v>
+      </c>
+      <c r="H10">
+        <v>0.3410667419433594</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>103.1</v>
+      </c>
+      <c r="E11">
+        <v>0.1632513046264648</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>103.1999998262973</v>
+      </c>
+      <c r="H11">
+        <v>702.3342435836792</v>
+      </c>
+      <c r="I11">
+        <v>0.008308034687020963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>102.4</v>
+      </c>
+      <c r="E12">
+        <v>0.03519439697265625</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>102.4</v>
+      </c>
+      <c r="H12">
+        <v>5.203476905822754</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>102.4</v>
+      </c>
+      <c r="E13">
+        <v>0.01424846649169922</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>102.4</v>
+      </c>
+      <c r="H13">
+        <v>0.2067344665527344</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
